--- a/config_10.26/rank_server.xlsx
+++ b/config_10.26/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5598,9 +5598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
+      <selection pane="bottomLeft" activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7566,6 +7566,9 @@
       <c r="D129" s="4">
         <v>49</v>
       </c>
+      <c r="E129" s="4">
+        <v>100</v>
+      </c>
       <c r="F129" s="38">
         <v>1000649</v>
       </c>
@@ -7586,6 +7589,9 @@
       <c r="D130" s="4">
         <v>49</v>
       </c>
+      <c r="E130" s="4">
+        <v>100</v>
+      </c>
       <c r="F130" s="38">
         <v>1000649</v>
       </c>
@@ -7746,8 +7752,8 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12312,7 +12318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K334" sqref="K334:L334"/>
     </sheetView>
